--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound11.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound11.xlsx
@@ -109,6 +109,15 @@
     <t>Arlington, TX</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale, FL</t>
+  </si>
+  <si>
     <t>CHI</t>
   </si>
   <si>
@@ -116,15 +125,6 @@
   </si>
   <si>
     <t>Bridgeview, IL</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>Fort Lauderdale, FL</t>
   </si>
   <si>
     <t>NOLA</t>
@@ -189,14 +189,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC50A2A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B8F1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -206,6 +198,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC81C22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC50A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,6 +260,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF00AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00653C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,18 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF092051"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00AA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +336,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,23 +747,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>0.4356830827273674</v>
+        <v>0.4453095283516542</v>
       </c>
       <c r="C3" s="13"/>
       <c r="E3" s="13">
-        <v>0.4027866153675331</v>
+        <v>0.4801632140911505</v>
       </c>
       <c r="F3" s="13"/>
       <c r="H3" s="13">
-        <v>0.4974614925719295</v>
+        <v>0.3529466240235151</v>
       </c>
       <c r="I3" s="13"/>
       <c r="K3" s="13">
-        <v>0.4845138848160978</v>
+        <v>0.5137113471694021</v>
       </c>
       <c r="L3" s="13"/>
       <c r="N3" s="13">
-        <v>0.6576547676603409</v>
+        <v>0.7276180458230335</v>
       </c>
       <c r="O3" s="13"/>
     </row>
@@ -772,23 +772,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>0.253515421160855</v>
+        <v>0.2400003025970093</v>
       </c>
       <c r="C4" s="13"/>
       <c r="E4" s="13">
-        <v>0.8420464743792822</v>
+        <v>0.8354416357045227</v>
       </c>
       <c r="F4" s="13"/>
       <c r="H4" s="13">
-        <v>0.8508817195288282</v>
+        <v>0.9510697605507391</v>
       </c>
       <c r="I4" s="13"/>
       <c r="K4" s="13">
-        <v>0.9535056763131979</v>
+        <v>0.8435391815567432</v>
       </c>
       <c r="L4" s="13"/>
       <c r="N4" s="13">
-        <v>0.878153162106921</v>
+        <v>0.8725484311926575</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -797,23 +797,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>11.04523802102882</v>
+        <v>10.68744215537285</v>
       </c>
       <c r="C5" s="12"/>
       <c r="E5" s="12">
-        <v>33.91650493973953</v>
+        <v>40.11483409854517</v>
       </c>
       <c r="F5" s="12"/>
       <c r="H5" s="12">
-        <v>42.32808901989808</v>
+        <v>33.56768611972362</v>
       </c>
       <c r="I5" s="12"/>
       <c r="K5" s="12">
-        <v>46.19867394247082</v>
+        <v>43.33356493476894</v>
       </c>
       <c r="L5" s="12"/>
       <c r="N5" s="12">
-        <v>57.75216137956208</v>
+        <v>63.48819843903549</v>
       </c>
       <c r="O5" s="12"/>
     </row>
@@ -822,34 +822,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="14">
-        <v>0.0424724</v>
+        <v>0.0392352</v>
       </c>
       <c r="C6" s="14">
-        <v>0.9575276</v>
+        <v>0.954032</v>
       </c>
       <c r="E6" s="14">
-        <v>0.7295941</v>
+        <v>0.7191896</v>
       </c>
       <c r="F6" s="14">
-        <v>0.2704059</v>
+        <v>0.2604282</v>
       </c>
       <c r="H6" s="14">
-        <v>0.7233242</v>
+        <v>0.360919</v>
       </c>
       <c r="I6" s="14">
-        <v>0.2766758</v>
+        <v>0.6131714</v>
       </c>
       <c r="K6" s="14">
-        <v>0.3737469</v>
+        <v>0.712063</v>
       </c>
       <c r="L6" s="14">
-        <v>0.6262531</v>
+        <v>0.2653086</v>
       </c>
       <c r="N6" s="14">
-        <v>0.2974514</v>
+        <v>0.286514</v>
       </c>
       <c r="O6" s="14">
-        <v>0.7025486</v>
+        <v>0.6913932</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -857,34 +857,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>16.9548406</v>
+        <v>16.958312</v>
       </c>
       <c r="C7" s="15">
-        <v>51.8435644</v>
+        <v>51.8394854</v>
       </c>
       <c r="E7" s="15">
-        <v>36.292543</v>
+        <v>36.2930602</v>
       </c>
       <c r="F7" s="15">
-        <v>24.431762</v>
+        <v>24.438528</v>
       </c>
       <c r="H7" s="15">
-        <v>30.4912312</v>
+        <v>19.866268</v>
       </c>
       <c r="I7" s="15">
-        <v>20.044752</v>
+        <v>24.992468</v>
       </c>
       <c r="K7" s="15">
-        <v>19.8711422</v>
+        <v>30.4863374</v>
       </c>
       <c r="L7" s="15">
-        <v>24.9981416</v>
+        <v>20.0465498</v>
       </c>
       <c r="N7" s="15">
-        <v>19.7672058</v>
+        <v>19.7722192</v>
       </c>
       <c r="O7" s="15">
-        <v>28.5175706</v>
+        <v>28.514952</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -904,16 +904,16 @@
         <v>7</v>
       </c>
       <c r="H8" s="15">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15">
+        <v>7</v>
+      </c>
+      <c r="K8" s="15">
         <v>10</v>
       </c>
-      <c r="I8" s="15">
+      <c r="L8" s="15">
         <v>5</v>
-      </c>
-      <c r="K8" s="15">
-        <v>3</v>
-      </c>
-      <c r="L8" s="15">
-        <v>7</v>
       </c>
       <c r="N8" s="15">
         <v>5</v>
@@ -933,22 +933,22 @@
         <v>29</v>
       </c>
       <c r="E9" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="15">
         <v>10</v>
       </c>
       <c r="H9" s="15">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15">
+        <v>10</v>
+      </c>
+      <c r="K9" s="15">
         <v>14</v>
       </c>
-      <c r="I9" s="15">
+      <c r="L9" s="15">
         <v>7</v>
-      </c>
-      <c r="K9" s="15">
-        <v>7</v>
-      </c>
-      <c r="L9" s="15">
-        <v>10</v>
       </c>
       <c r="N9" s="15">
         <v>7</v>
@@ -974,16 +974,16 @@
         <v>12</v>
       </c>
       <c r="H10" s="15">
+        <v>9</v>
+      </c>
+      <c r="I10" s="15">
+        <v>13</v>
+      </c>
+      <c r="K10" s="15">
         <v>17</v>
       </c>
-      <c r="I10" s="15">
+      <c r="L10" s="15">
         <v>8</v>
-      </c>
-      <c r="K10" s="15">
-        <v>9</v>
-      </c>
-      <c r="L10" s="15">
-        <v>13</v>
       </c>
       <c r="N10" s="15">
         <v>8</v>
@@ -1009,16 +1009,16 @@
         <v>14</v>
       </c>
       <c r="H11" s="15">
+        <v>10</v>
+      </c>
+      <c r="I11" s="15">
+        <v>15</v>
+      </c>
+      <c r="K11" s="15">
         <v>19</v>
       </c>
-      <c r="I11" s="15">
+      <c r="L11" s="15">
         <v>10</v>
-      </c>
-      <c r="K11" s="15">
-        <v>10</v>
-      </c>
-      <c r="L11" s="15">
-        <v>15</v>
       </c>
       <c r="N11" s="15">
         <v>10</v>
@@ -1044,16 +1044,16 @@
         <v>15</v>
       </c>
       <c r="H12" s="15">
+        <v>12</v>
+      </c>
+      <c r="I12" s="15">
+        <v>17</v>
+      </c>
+      <c r="K12" s="15">
         <v>21</v>
       </c>
-      <c r="I12" s="15">
+      <c r="L12" s="15">
         <v>12</v>
-      </c>
-      <c r="K12" s="15">
-        <v>12</v>
-      </c>
-      <c r="L12" s="15">
-        <v>17</v>
       </c>
       <c r="N12" s="15">
         <v>12</v>
@@ -1079,16 +1079,16 @@
         <v>17</v>
       </c>
       <c r="H13" s="15">
+        <v>13</v>
+      </c>
+      <c r="I13" s="15">
+        <v>18</v>
+      </c>
+      <c r="K13" s="15">
         <v>22</v>
       </c>
-      <c r="I13" s="15">
+      <c r="L13" s="15">
         <v>14</v>
-      </c>
-      <c r="K13" s="15">
-        <v>13</v>
-      </c>
-      <c r="L13" s="15">
-        <v>18</v>
       </c>
       <c r="N13" s="15">
         <v>13</v>
@@ -1114,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="H14" s="15">
+        <v>15</v>
+      </c>
+      <c r="I14" s="15">
+        <v>20</v>
+      </c>
+      <c r="K14" s="15">
         <v>24</v>
       </c>
-      <c r="I14" s="15">
+      <c r="L14" s="15">
         <v>15</v>
-      </c>
-      <c r="K14" s="15">
-        <v>15</v>
-      </c>
-      <c r="L14" s="15">
-        <v>20</v>
       </c>
       <c r="N14" s="15">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         <v>20</v>
       </c>
       <c r="H15" s="15">
+        <v>16</v>
+      </c>
+      <c r="I15" s="15">
+        <v>21</v>
+      </c>
+      <c r="K15" s="15">
         <v>26</v>
       </c>
-      <c r="I15" s="15">
+      <c r="L15" s="15">
         <v>17</v>
-      </c>
-      <c r="K15" s="15">
-        <v>16</v>
-      </c>
-      <c r="L15" s="15">
-        <v>21</v>
       </c>
       <c r="N15" s="15">
         <v>16</v>
@@ -1184,16 +1184,16 @@
         <v>22</v>
       </c>
       <c r="H16" s="15">
+        <v>17</v>
+      </c>
+      <c r="I16" s="15">
+        <v>22</v>
+      </c>
+      <c r="K16" s="15">
         <v>28</v>
       </c>
-      <c r="I16" s="15">
+      <c r="L16" s="15">
         <v>17</v>
-      </c>
-      <c r="K16" s="15">
-        <v>17</v>
-      </c>
-      <c r="L16" s="15">
-        <v>22</v>
       </c>
       <c r="N16" s="15">
         <v>17</v>
@@ -1219,16 +1219,16 @@
         <v>24</v>
       </c>
       <c r="H17" s="15">
+        <v>19</v>
+      </c>
+      <c r="I17" s="15">
+        <v>24</v>
+      </c>
+      <c r="K17" s="15">
         <v>29</v>
       </c>
-      <c r="I17" s="15">
+      <c r="L17" s="15">
         <v>19</v>
-      </c>
-      <c r="K17" s="15">
-        <v>19</v>
-      </c>
-      <c r="L17" s="15">
-        <v>24</v>
       </c>
       <c r="N17" s="15">
         <v>19</v>
@@ -1254,16 +1254,16 @@
         <v>25</v>
       </c>
       <c r="H18" s="15">
+        <v>20</v>
+      </c>
+      <c r="I18" s="15">
+        <v>25</v>
+      </c>
+      <c r="K18" s="15">
         <v>31</v>
       </c>
-      <c r="I18" s="15">
+      <c r="L18" s="15">
         <v>20</v>
-      </c>
-      <c r="K18" s="15">
-        <v>20</v>
-      </c>
-      <c r="L18" s="15">
-        <v>25</v>
       </c>
       <c r="N18" s="15">
         <v>20</v>
@@ -1286,19 +1286,19 @@
         <v>39</v>
       </c>
       <c r="F19" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H19" s="15">
+        <v>22</v>
+      </c>
+      <c r="I19" s="15">
+        <v>27</v>
+      </c>
+      <c r="K19" s="15">
         <v>33</v>
       </c>
-      <c r="I19" s="15">
+      <c r="L19" s="15">
         <v>22</v>
-      </c>
-      <c r="K19" s="15">
-        <v>22</v>
-      </c>
-      <c r="L19" s="15">
-        <v>27</v>
       </c>
       <c r="N19" s="15">
         <v>22</v>
@@ -1324,16 +1324,16 @@
         <v>28</v>
       </c>
       <c r="H20" s="15">
+        <v>23</v>
+      </c>
+      <c r="I20" s="15">
+        <v>29</v>
+      </c>
+      <c r="K20" s="15">
         <v>35</v>
       </c>
-      <c r="I20" s="15">
+      <c r="L20" s="15">
         <v>24</v>
-      </c>
-      <c r="K20" s="15">
-        <v>23</v>
-      </c>
-      <c r="L20" s="15">
-        <v>29</v>
       </c>
       <c r="N20" s="15">
         <v>23</v>
@@ -1359,16 +1359,16 @@
         <v>30</v>
       </c>
       <c r="H21" s="15">
+        <v>25</v>
+      </c>
+      <c r="I21" s="15">
+        <v>30</v>
+      </c>
+      <c r="K21" s="15">
         <v>37</v>
       </c>
-      <c r="I21" s="15">
+      <c r="L21" s="15">
         <v>25</v>
-      </c>
-      <c r="K21" s="15">
-        <v>25</v>
-      </c>
-      <c r="L21" s="15">
-        <v>30</v>
       </c>
       <c r="N21" s="15">
         <v>25</v>
@@ -1394,16 +1394,16 @@
         <v>32</v>
       </c>
       <c r="H22" s="15">
+        <v>27</v>
+      </c>
+      <c r="I22" s="15">
+        <v>32</v>
+      </c>
+      <c r="K22" s="15">
         <v>39</v>
       </c>
-      <c r="I22" s="15">
+      <c r="L22" s="15">
         <v>27</v>
-      </c>
-      <c r="K22" s="15">
-        <v>27</v>
-      </c>
-      <c r="L22" s="15">
-        <v>32</v>
       </c>
       <c r="N22" s="15">
         <v>26</v>
@@ -1423,22 +1423,22 @@
         <v>67</v>
       </c>
       <c r="E23" s="15">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="15">
         <v>34</v>
       </c>
       <c r="H23" s="15">
+        <v>29</v>
+      </c>
+      <c r="I23" s="15">
+        <v>35</v>
+      </c>
+      <c r="K23" s="15">
         <v>42</v>
       </c>
-      <c r="I23" s="15">
+      <c r="L23" s="15">
         <v>29</v>
-      </c>
-      <c r="K23" s="15">
-        <v>29</v>
-      </c>
-      <c r="L23" s="15">
-        <v>35</v>
       </c>
       <c r="N23" s="15">
         <v>29</v>
@@ -1464,16 +1464,16 @@
         <v>37</v>
       </c>
       <c r="H24" s="15">
+        <v>31</v>
+      </c>
+      <c r="I24" s="15">
+        <v>37</v>
+      </c>
+      <c r="K24" s="15">
         <v>45</v>
       </c>
-      <c r="I24" s="15">
+      <c r="L24" s="15">
         <v>31</v>
-      </c>
-      <c r="K24" s="15">
-        <v>31</v>
-      </c>
-      <c r="L24" s="15">
-        <v>37</v>
       </c>
       <c r="N24" s="15">
         <v>31</v>
@@ -1499,16 +1499,16 @@
         <v>41</v>
       </c>
       <c r="H25" s="15">
+        <v>34</v>
+      </c>
+      <c r="I25" s="15">
+        <v>41</v>
+      </c>
+      <c r="K25" s="15">
         <v>49</v>
       </c>
-      <c r="I25" s="15">
+      <c r="L25" s="15">
         <v>35</v>
-      </c>
-      <c r="K25" s="15">
-        <v>34</v>
-      </c>
-      <c r="L25" s="15">
-        <v>41</v>
       </c>
       <c r="N25" s="15">
         <v>34</v>
@@ -1534,16 +1534,16 @@
         <v>46</v>
       </c>
       <c r="H26" s="15">
+        <v>39</v>
+      </c>
+      <c r="I26" s="15">
+        <v>46</v>
+      </c>
+      <c r="K26" s="15">
         <v>55</v>
       </c>
-      <c r="I26" s="15">
+      <c r="L26" s="15">
         <v>40</v>
-      </c>
-      <c r="K26" s="15">
-        <v>39</v>
-      </c>
-      <c r="L26" s="15">
-        <v>46</v>
       </c>
       <c r="N26" s="15">
         <v>39</v>
